--- a/GanttNew.xlsx
+++ b/GanttNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e182d2d2aa497be0/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B78D1082-B681-4BFB-9876-7234CD33FC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{B78D1082-B681-4BFB-9876-7234CD33FC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED1CB10F-130A-4896-8C3B-0DDA894E4E6E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
         <v>45594</v>
       </c>
       <c r="C11" s="10">
-        <v>44499</v>
+        <v>45595</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
